--- a/models/example_data/MAGIC/birkenes_inputs.xlsx
+++ b/models/example_data/MAGIC/birkenes_inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Mobius2\models\data\MAGIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Mobius2\models\example_data\MAGIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95961853-E246-4B03-8966-6B3A25A8CE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF7910A-94D9-4AB6-87B4-930437966E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Climate" sheetId="1" r:id="rId1"/>
@@ -253,9 +253,6 @@
     <t>OA balance</t>
   </si>
   <si>
-    <t>Obs  Ca%</t>
-  </si>
-  <si>
     <t>Obs Mg%</t>
   </si>
   <si>
@@ -311,6 +308,9 @@
   </si>
   <si>
     <t>NO3 wet deposition scale</t>
+  </si>
+  <si>
+    <t>Obs Ca%</t>
   </si>
 </sst>
 </file>
@@ -2379,7 +2379,7 @@
   <dimension ref="A1:I605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2389,28 +2389,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -8466,10 +8466,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
         <v>86</v>
-      </c>
-      <c r="C1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -8661,7 +8661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E43C51-CA46-4C64-BB7D-89C1AC4CC03B}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -8672,10 +8672,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" t="s">
         <v>88</v>
-      </c>
-      <c r="C1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -8783,8 +8783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D29DBFB-10BA-4C38-A5BE-D34B7F8704FF}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8827,61 +8827,61 @@
         <v>14</v>
       </c>
       <c r="M1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N1" t="s">
         <v>69</v>
       </c>
       <c r="O1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P1" t="s">
         <v>70</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>72</v>
-      </c>
-      <c r="R1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" t="s">
         <v>83</v>
       </c>
-      <c r="D2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M2" t="s">
-        <v>84</v>
-      </c>
       <c r="N2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
